--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -55,6 +61,15 @@
     <t>兴银丰运稳益回报混合C</t>
   </si>
   <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
     <t>86.04</t>
   </si>
   <si>
@@ -65,6 +80,18 @@
   </si>
   <si>
     <t>1.48</t>
+  </si>
+  <si>
+    <t>0.0254</t>
+  </si>
+  <si>
+    <t>0.0113</t>
+  </si>
+  <si>
+    <t>0.0105</t>
+  </si>
+  <si>
+    <t>0.0053</t>
   </si>
 </sst>
 </file>
@@ -422,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,84 +471,114 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -1,129 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>007163</t>
-  </si>
-  <si>
-    <t>007164</t>
-  </si>
-  <si>
-    <t>009205</t>
-  </si>
-  <si>
-    <t>009206</t>
-  </si>
-  <si>
-    <t>浦银安盛环保新能源混合A</t>
-  </si>
-  <si>
-    <t>浦银安盛环保新能源混合C</t>
-  </si>
-  <si>
-    <t>兴银丰运稳益回报混合A</t>
-  </si>
-  <si>
-    <t>兴银丰运稳益回报混合C</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>86.04</t>
-  </si>
-  <si>
-    <t>35.55</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>0.0254</t>
-  </si>
-  <si>
-    <t>0.0113</t>
-  </si>
-  <si>
-    <t>0.0105</t>
-  </si>
-  <si>
-    <t>0.0053</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,141 +446,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.81</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,689 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001424</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.5</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.81</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1748,13 +1813,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.94</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.5</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.81</v>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2087,13 +2174,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,209 +455,401 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007163</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浦银安盛环保新能源混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007164</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浦银安盛环保新能源混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.94</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +876,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -714,36 +906,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.85</t>
+          <t>51.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2718</t>
+          <t>2.0489</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -752,36 +944,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519700</t>
+          <t>001694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银主题优选混合</t>
+          <t>华安沪港深外延增长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.13</t>
+          <t>43.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.54</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3549</t>
+          <t>1.7432</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -790,36 +982,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519756</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.08</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1060</t>
+          <t>1.3225</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -828,36 +1020,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.83</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.5416</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -866,36 +1058,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.83</t>
+          <t>32.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.1273</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -904,36 +1096,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>32.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0773</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -942,32 +1134,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004522</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0749</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -979,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +1873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1708,7 +1900,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1738,36 +1930,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>501092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.61</t>
+          <t>60.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0489</t>
+          <t>1.2718</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1776,36 +1968,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001694</t>
+          <t>519700</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安沪港深外延增长灵活配置混合</t>
+          <t>交银主题优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.58</t>
+          <t>16.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>70.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7432</t>
+          <t>0.3549</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1814,36 +2006,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>519756</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>交银施罗德国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>85.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3225</t>
+          <t>0.1060</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1852,36 +2044,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>26.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5416</t>
+          <t>0.0452</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1890,36 +2082,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32.99</t>
+          <t>26.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1273</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1928,36 +2120,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.99</t>
+          <t>86.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0773</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1966,320 +2158,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>004522</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>86.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0749</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9804</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001694</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安沪港深外延增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5256</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4843</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1181</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013620</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2293,112 +2201,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.23</v>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.94</v>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.5</v>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05</v>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>5.94</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>1.81</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1171,7 +1396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1873,7 +2098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2195,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600131-国网信通.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.94</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5.5</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1.81</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -583,6 +600,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +2077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2098,7 +2779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
